--- a/data/GP/30034001/None/5_bc_param/Indata_GP_75_76_samples.xlsx
+++ b/data/GP/30034001/None/5_bc_param/Indata_GP_75_76_samples.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513017222243734</v>
+        <v>2.111596909738947</v>
       </c>
       <c r="C2">
-        <v>1.0329617530034</v>
+        <v>1.151143907644765</v>
       </c>
       <c r="D2">
-        <v>1.278498895662359</v>
+        <v>1.063586418227615</v>
       </c>
       <c r="E2">
-        <v>0.03202314203563298</v>
+        <v>0.05013872035468724</v>
       </c>
       <c r="F2">
-        <v>1.370455348756486</v>
+        <v>1.358425645560087</v>
       </c>
       <c r="G2">
-        <v>1084656.547515762</v>
+        <v>807195.912420933</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.690560824504268</v>
+        <v>3.881740325822076</v>
       </c>
       <c r="C3">
-        <v>0.9963327939884605</v>
+        <v>0.9364193962748157</v>
       </c>
       <c r="D3">
-        <v>2.115377332165536</v>
+        <v>1.618207660160392</v>
       </c>
       <c r="E3">
-        <v>0.03097478946004411</v>
+        <v>0.03885462261068808</v>
       </c>
       <c r="F3">
-        <v>1.206595887942975</v>
+        <v>1.344631746282795</v>
       </c>
       <c r="G3">
-        <v>1312823.759701865</v>
+        <v>1278881.254821616</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.833082841942672</v>
+        <v>3.400619201459142</v>
       </c>
       <c r="C4">
-        <v>1.225210174505079</v>
+        <v>1.193570215315885</v>
       </c>
       <c r="D4">
-        <v>2.721301730454901</v>
+        <v>2.269387152394951</v>
       </c>
       <c r="E4">
-        <v>0.03405323007198405</v>
+        <v>0.03073388965923678</v>
       </c>
       <c r="F4">
-        <v>0.8064751027311337</v>
+        <v>1.443366111685845</v>
       </c>
       <c r="G4">
-        <v>2253208.109239355</v>
+        <v>1733228.796789718</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.320503803420058</v>
+        <v>2.367202733362388</v>
       </c>
       <c r="C5">
-        <v>1.069817442467457</v>
+        <v>1.054655348971165</v>
       </c>
       <c r="D5">
-        <v>1.871989574769193</v>
+        <v>2.998907713291755</v>
       </c>
       <c r="E5">
-        <v>0.04480035884214147</v>
+        <v>0.05753311392527787</v>
       </c>
       <c r="F5">
-        <v>1.429737464129865</v>
+        <v>1.169173389968549</v>
       </c>
       <c r="G5">
-        <v>1503136.141088941</v>
+        <v>1164808.282594435</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.193542002386148</v>
+        <v>3.624854613665429</v>
       </c>
       <c r="C6">
-        <v>0.9850659693984365</v>
+        <v>0.9730625448816992</v>
       </c>
       <c r="D6">
-        <v>2.312023746299938</v>
+        <v>1.098905186224575</v>
       </c>
       <c r="E6">
-        <v>0.05128283120570515</v>
+        <v>0.05650420005364216</v>
       </c>
       <c r="F6">
-        <v>1.185084465208957</v>
+        <v>1.426486367949014</v>
       </c>
       <c r="G6">
-        <v>983456.6760824055</v>
+        <v>917453.8829184507</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.751652132883508</v>
+        <v>2.742313893958895</v>
       </c>
       <c r="C7">
-        <v>0.9773663755956539</v>
+        <v>1.083190364818055</v>
       </c>
       <c r="D7">
-        <v>1.059166550321365</v>
+        <v>2.352992399556492</v>
       </c>
       <c r="E7">
-        <v>0.04767570643348755</v>
+        <v>0.05125215034100776</v>
       </c>
       <c r="F7">
-        <v>0.9139743356190619</v>
+        <v>1.034874276601475</v>
       </c>
       <c r="G7">
-        <v>815124.0233064909</v>
+        <v>1314441.847445094</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.042582631314223</v>
+        <v>2.082788680338765</v>
       </c>
       <c r="C8">
-        <v>1.227154324825138</v>
+        <v>1.051478786295637</v>
       </c>
       <c r="D8">
-        <v>1.671795720879699</v>
+        <v>1.487794439701754</v>
       </c>
       <c r="E8">
-        <v>0.04603499074174452</v>
+        <v>0.043419471476062</v>
       </c>
       <c r="F8">
-        <v>0.8892639409180123</v>
+        <v>1.073707558755505</v>
       </c>
       <c r="G8">
-        <v>1274560.491178933</v>
+        <v>1007795.841252195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.414717539097799</v>
+        <v>4.760808563507084</v>
       </c>
       <c r="C9">
-        <v>1.247275888000276</v>
+        <v>1.226790359230028</v>
       </c>
       <c r="D9">
-        <v>2.338969427764748</v>
+        <v>1.804601155101364</v>
       </c>
       <c r="E9">
-        <v>0.0371569285346193</v>
+        <v>0.03122504903185256</v>
       </c>
       <c r="F9">
-        <v>1.402786733417305</v>
+        <v>1.369262337803802</v>
       </c>
       <c r="G9">
-        <v>2049998.666725209</v>
+        <v>2120752.394405837</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.802710028894045</v>
+        <v>1.801305131907114</v>
       </c>
       <c r="C10">
-        <v>0.9461542758135312</v>
+        <v>1.232755735485646</v>
       </c>
       <c r="D10">
-        <v>2.239665665494614</v>
+        <v>2.537660366199095</v>
       </c>
       <c r="E10">
-        <v>0.04855788643768536</v>
+        <v>0.05390792100593059</v>
       </c>
       <c r="F10">
-        <v>0.9898121379083451</v>
+        <v>0.8919819595512464</v>
       </c>
       <c r="G10">
-        <v>1672861.297668051</v>
+        <v>1316536.450128314</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.406267098274935</v>
+        <v>2.016053966960613</v>
       </c>
       <c r="C11">
-        <v>1.144031436941629</v>
+        <v>0.9778542673231064</v>
       </c>
       <c r="D11">
-        <v>1.709161539169667</v>
+        <v>1.113441602103153</v>
       </c>
       <c r="E11">
-        <v>0.03512024161654049</v>
+        <v>0.03497579695368741</v>
       </c>
       <c r="F11">
-        <v>1.11755049384918</v>
+        <v>1.447537072222112</v>
       </c>
       <c r="G11">
-        <v>1601361.943814597</v>
+        <v>819653.8035624388</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.244405303883589</v>
+        <v>2.700606195098941</v>
       </c>
       <c r="C12">
-        <v>1.042940338414968</v>
+        <v>1.195508877168352</v>
       </c>
       <c r="D12">
-        <v>1.640448701556451</v>
+        <v>1.182316736687467</v>
       </c>
       <c r="E12">
-        <v>0.0400556963598766</v>
+        <v>0.04714190866961508</v>
       </c>
       <c r="F12">
-        <v>1.017334811602965</v>
+        <v>0.8732044990896218</v>
       </c>
       <c r="G12">
-        <v>1386994.507662304</v>
+        <v>1321297.071639324</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.912012079179939</v>
+        <v>2.54969415954514</v>
       </c>
       <c r="C13">
-        <v>1.171566808546203</v>
+        <v>1.010987688554399</v>
       </c>
       <c r="D13">
-        <v>2.835291057558609</v>
+        <v>2.715829395092192</v>
       </c>
       <c r="E13">
-        <v>0.05668350174142217</v>
+        <v>0.04431189546883808</v>
       </c>
       <c r="F13">
-        <v>1.177272683742264</v>
+        <v>1.103492295592417</v>
       </c>
       <c r="G13">
-        <v>1419072.946419229</v>
+        <v>1290330.435320216</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.155346198949576</v>
+        <v>2.590922466677574</v>
       </c>
       <c r="C14">
-        <v>1.04757646255841</v>
+        <v>0.9416379039117456</v>
       </c>
       <c r="D14">
-        <v>2.463649783802191</v>
+        <v>1.838354798544709</v>
       </c>
       <c r="E14">
-        <v>0.04975073095068967</v>
+        <v>0.05294250567137884</v>
       </c>
       <c r="F14">
-        <v>0.8815999610585381</v>
+        <v>1.120156968088618</v>
       </c>
       <c r="G14">
-        <v>1239401.124249479</v>
+        <v>961026.7401928718</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.333901308053644</v>
+        <v>3.127624976489908</v>
       </c>
       <c r="C15">
-        <v>1.132160011419967</v>
+        <v>1.080937417687784</v>
       </c>
       <c r="D15">
-        <v>2.89498318918761</v>
+        <v>1.338747595665605</v>
       </c>
       <c r="E15">
-        <v>0.0315184777847877</v>
+        <v>0.05101499935269446</v>
       </c>
       <c r="F15">
-        <v>0.9072159520325671</v>
+        <v>1.378261141450144</v>
       </c>
       <c r="G15">
-        <v>1666972.381055932</v>
+        <v>1035286.897169917</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.579727475571406</v>
+        <v>3.495359743659563</v>
       </c>
       <c r="C16">
-        <v>1.215857993910564</v>
+        <v>1.163288046578621</v>
       </c>
       <c r="D16">
-        <v>1.850189138044912</v>
+        <v>1.962683820022305</v>
       </c>
       <c r="E16">
-        <v>0.0454488704316154</v>
+        <v>0.044891722622495</v>
       </c>
       <c r="F16">
-        <v>0.8353118436659309</v>
+        <v>1.200093945106943</v>
       </c>
       <c r="G16">
-        <v>1805458.662465468</v>
+        <v>1533218.699231291</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.93622984029795</v>
+        <v>2.667539065069425</v>
       </c>
       <c r="C17">
-        <v>1.012489890012617</v>
+        <v>1.002106008364209</v>
       </c>
       <c r="D17">
-        <v>1.419353957189387</v>
+        <v>2.339133514226413</v>
       </c>
       <c r="E17">
-        <v>0.04654722406576299</v>
+        <v>0.0534007499959355</v>
       </c>
       <c r="F17">
-        <v>0.95683075343984</v>
+        <v>0.8379432937230101</v>
       </c>
       <c r="G17">
-        <v>1439366.338343687</v>
+        <v>1279701.209619024</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.029502215780955</v>
+        <v>3.542897957966209</v>
       </c>
       <c r="C18">
-        <v>1.127193184633401</v>
+        <v>1.060986302117337</v>
       </c>
       <c r="D18">
-        <v>1.105620830121609</v>
+        <v>2.140093229138329</v>
       </c>
       <c r="E18">
-        <v>0.04345971302716065</v>
+        <v>0.03574945052237934</v>
       </c>
       <c r="F18">
-        <v>0.8253487178209394</v>
+        <v>1.264364147277331</v>
       </c>
       <c r="G18">
-        <v>1382513.373547794</v>
+        <v>1543026.681225728</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.844520907544004</v>
+        <v>2.786301118517513</v>
       </c>
       <c r="C19">
-        <v>1.16131277157025</v>
+        <v>1.044625487210147</v>
       </c>
       <c r="D19">
-        <v>2.670856033293501</v>
+        <v>2.777582207168162</v>
       </c>
       <c r="E19">
-        <v>0.05453873064420588</v>
+        <v>0.03313777453893257</v>
       </c>
       <c r="F19">
-        <v>1.250818994635642</v>
+        <v>0.9926008873738831</v>
       </c>
       <c r="G19">
-        <v>1335829.279392525</v>
+        <v>1585691.77470596</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.999471228526363</v>
+        <v>1.6334740366578</v>
       </c>
       <c r="C20">
-        <v>1.0895255352294</v>
+        <v>1.173130622442412</v>
       </c>
       <c r="D20">
-        <v>2.884928855557316</v>
+        <v>1.380728046079253</v>
       </c>
       <c r="E20">
-        <v>0.05763270245717707</v>
+        <v>0.04996513631473982</v>
       </c>
       <c r="F20">
-        <v>1.409529205125229</v>
+        <v>0.8182779035410102</v>
       </c>
       <c r="G20">
-        <v>956447.944898088</v>
+        <v>1043255.520541602</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.862626244821232</v>
+        <v>3.26403021586127</v>
       </c>
       <c r="C21">
-        <v>1.03885018771905</v>
+        <v>1.144425883765692</v>
       </c>
       <c r="D21">
-        <v>2.265534121157388</v>
+        <v>1.428781209716602</v>
       </c>
       <c r="E21">
-        <v>0.02982097776782076</v>
+        <v>0.04854662422865792</v>
       </c>
       <c r="F21">
-        <v>1.348890096053304</v>
+        <v>0.8336868796325583</v>
       </c>
       <c r="G21">
-        <v>1677313.264940255</v>
+        <v>1484680.776390686</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.992001355353779</v>
+        <v>4.542689653549052</v>
       </c>
       <c r="C22">
-        <v>1.062076617106674</v>
+        <v>1.040600608111772</v>
       </c>
       <c r="D22">
-        <v>2.803917664955905</v>
+        <v>1.191401555208196</v>
       </c>
       <c r="E22">
-        <v>0.03849227665286146</v>
+        <v>0.02901109184579712</v>
       </c>
       <c r="F22">
-        <v>1.424333261467555</v>
+        <v>0.8535214853942521</v>
       </c>
       <c r="G22">
-        <v>1426307.384729119</v>
+        <v>1821211.223306668</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.954717409064682</v>
+        <v>3.352654826284775</v>
       </c>
       <c r="C23">
-        <v>1.123013093319575</v>
+        <v>1.027714226369249</v>
       </c>
       <c r="D23">
-        <v>2.39940083828296</v>
+        <v>1.725005453951042</v>
       </c>
       <c r="E23">
-        <v>0.0539763725129864</v>
+        <v>0.05156353940084334</v>
       </c>
       <c r="F23">
-        <v>1.218939879965435</v>
+        <v>1.283510142567238</v>
       </c>
       <c r="G23">
-        <v>1025494.520532221</v>
+        <v>1148721.34629178</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.766748754079866</v>
+        <v>3.016642394695989</v>
       </c>
       <c r="C24">
-        <v>0.9586209654875779</v>
+        <v>1.093656087725162</v>
       </c>
       <c r="D24">
-        <v>1.245220702882192</v>
+        <v>2.510830933259622</v>
       </c>
       <c r="E24">
-        <v>0.04076391674065888</v>
+        <v>0.03213613874254456</v>
       </c>
       <c r="F24">
-        <v>1.07882056512412</v>
+        <v>1.324330692980864</v>
       </c>
       <c r="G24">
-        <v>1295355.929096756</v>
+        <v>1553585.507508234</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.531811630912672</v>
+        <v>4.404570957199666</v>
       </c>
       <c r="C25">
-        <v>0.9703035417254448</v>
+        <v>1.114773995354265</v>
       </c>
       <c r="D25">
-        <v>1.992914559719237</v>
+        <v>2.061508227398462</v>
       </c>
       <c r="E25">
-        <v>0.05066709999454641</v>
+        <v>0.04762648368257985</v>
       </c>
       <c r="F25">
-        <v>1.193477605427876</v>
+        <v>0.9531482785480552</v>
       </c>
       <c r="G25">
-        <v>1228918.596057196</v>
+        <v>1848766.927254645</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.049899835018762</v>
+        <v>4.500756538680649</v>
       </c>
       <c r="C26">
-        <v>1.117885927629073</v>
+        <v>1.134255482866934</v>
       </c>
       <c r="D26">
-        <v>1.182162321827713</v>
+        <v>1.776642313453021</v>
       </c>
       <c r="E26">
-        <v>0.02920586563618761</v>
+        <v>0.04023385645762306</v>
       </c>
       <c r="F26">
-        <v>1.471701974483961</v>
+        <v>1.000419549916904</v>
       </c>
       <c r="G26">
-        <v>1040910.153879827</v>
+        <v>1908930.258414422</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.743907747687374</v>
+        <v>4.380120399494085</v>
       </c>
       <c r="C27">
-        <v>1.080981007467908</v>
+        <v>1.189179977020095</v>
       </c>
       <c r="D27">
-        <v>1.742383278210694</v>
+        <v>1.570939594484353</v>
       </c>
       <c r="E27">
-        <v>0.03649353776007892</v>
+        <v>0.04930891658446494</v>
       </c>
       <c r="F27">
-        <v>1.058951420447363</v>
+        <v>1.391479552170551</v>
       </c>
       <c r="G27">
-        <v>1347657.774483949</v>
+        <v>1566739.255643569</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.229938739144328</v>
+        <v>3.071252451236208</v>
       </c>
       <c r="C28">
-        <v>0.9676902850652944</v>
+        <v>1.175197210080762</v>
       </c>
       <c r="D28">
-        <v>1.454157180674084</v>
+        <v>1.675139226525441</v>
       </c>
       <c r="E28">
-        <v>0.03206417793657371</v>
+        <v>0.04116273698267326</v>
       </c>
       <c r="F28">
-        <v>0.8092908636421664</v>
+        <v>1.380665341662012</v>
       </c>
       <c r="G28">
-        <v>1403064.830474787</v>
+        <v>1327817.812383382</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.70480366391927</v>
+        <v>2.982935717753643</v>
       </c>
       <c r="C29">
-        <v>0.9913653337057674</v>
+        <v>1.119866640288111</v>
       </c>
       <c r="D29">
-        <v>1.959821774066927</v>
+        <v>1.52073777059339</v>
       </c>
       <c r="E29">
-        <v>0.04715412081819842</v>
+        <v>0.05422591122223575</v>
       </c>
       <c r="F29">
-        <v>0.9332171645442396</v>
+        <v>1.212646806889464</v>
       </c>
       <c r="G29">
-        <v>971306.0950629858</v>
+        <v>1116190.603000766</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.135201653857054</v>
+        <v>2.889214192535056</v>
       </c>
       <c r="C30">
-        <v>1.187799502726271</v>
+        <v>1.099667914143915</v>
       </c>
       <c r="D30">
-        <v>2.353231484473129</v>
+        <v>2.868537020747061</v>
       </c>
       <c r="E30">
-        <v>0.05316740510133736</v>
+        <v>0.04793920542079735</v>
       </c>
       <c r="F30">
-        <v>1.055449110799819</v>
+        <v>1.055700171137995</v>
       </c>
       <c r="G30">
-        <v>1820238.005916457</v>
+        <v>1509642.702653686</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.671566725895927</v>
+        <v>2.470564874867853</v>
       </c>
       <c r="C31">
-        <v>1.028933709206431</v>
+        <v>1.208252913490987</v>
       </c>
       <c r="D31">
-        <v>1.373202400474718</v>
+        <v>2.1713266397069</v>
       </c>
       <c r="E31">
-        <v>0.03798243815207349</v>
+        <v>0.04147973928293101</v>
       </c>
       <c r="F31">
-        <v>0.9808851333235831</v>
+        <v>0.9615789068987202</v>
       </c>
       <c r="G31">
-        <v>1728895.251714161</v>
+        <v>1506652.162377924</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.366424312820456</v>
+        <v>4.292413305418374</v>
       </c>
       <c r="C32">
-        <v>1.249328247413313</v>
+        <v>1.217161973742166</v>
       </c>
       <c r="D32">
-        <v>2.073555445436718</v>
+        <v>2.388731893021335</v>
       </c>
       <c r="E32">
-        <v>0.03382550990749446</v>
+        <v>0.03396284945594975</v>
       </c>
       <c r="F32">
-        <v>1.355215469654357</v>
+        <v>1.249535548410726</v>
       </c>
       <c r="G32">
-        <v>1736520.108945374</v>
+        <v>2101080.920282071</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.605261181304401</v>
+        <v>1.713246761685112</v>
       </c>
       <c r="C33">
-        <v>1.207052543721503</v>
+        <v>1.065732079974196</v>
       </c>
       <c r="D33">
-        <v>1.009565782216704</v>
+        <v>2.434234196330664</v>
       </c>
       <c r="E33">
-        <v>0.04816566079127682</v>
+        <v>0.03375739044221569</v>
       </c>
       <c r="F33">
-        <v>1.474116214917074</v>
+        <v>1.455308098251652</v>
       </c>
       <c r="G33">
-        <v>937455.0056234184</v>
+        <v>1084485.55916463</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.111147775806948</v>
+        <v>1.779095681916262</v>
       </c>
       <c r="C34">
-        <v>1.239117579759736</v>
+        <v>1.069671472302528</v>
       </c>
       <c r="D34">
-        <v>1.726970285343901</v>
+        <v>2.754924527619197</v>
       </c>
       <c r="E34">
-        <v>0.04354761412440782</v>
+        <v>0.03547028148930903</v>
       </c>
       <c r="F34">
-        <v>1.390378319627336</v>
+        <v>1.304477935728948</v>
       </c>
       <c r="G34">
-        <v>1087447.989032203</v>
+        <v>1199041.613084599</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.18910095200309</v>
+        <v>3.990060192740859</v>
       </c>
       <c r="C35">
-        <v>1.193806144087008</v>
+        <v>1.181139737400359</v>
       </c>
       <c r="D35">
-        <v>2.018893658371794</v>
+        <v>1.005279936200363</v>
       </c>
       <c r="E35">
-        <v>0.05079931334089507</v>
+        <v>0.05190939952064154</v>
       </c>
       <c r="F35">
-        <v>1.148785824366161</v>
+        <v>1.412973636685457</v>
       </c>
       <c r="G35">
-        <v>1740556.538618064</v>
+        <v>1268346.644622541</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.264315241725541</v>
+        <v>2.214041916995183</v>
       </c>
       <c r="C36">
-        <v>1.140662949366047</v>
+        <v>1.238730086987535</v>
       </c>
       <c r="D36">
-        <v>1.626244576647709</v>
+        <v>2.69486932439321</v>
       </c>
       <c r="E36">
-        <v>0.03250914622251255</v>
+        <v>0.03653966561989776</v>
       </c>
       <c r="F36">
-        <v>1.256871779815542</v>
+        <v>1.020462460025337</v>
       </c>
       <c r="G36">
-        <v>1237141.966636997</v>
+        <v>1622635.403475407</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.161305506514919</v>
+        <v>4.233375552566466</v>
       </c>
       <c r="C37">
-        <v>1.113134302911723</v>
+        <v>1.10425857771179</v>
       </c>
       <c r="D37">
-        <v>2.037125353673142</v>
+        <v>1.295507562079137</v>
       </c>
       <c r="E37">
-        <v>0.04448622510685472</v>
+        <v>0.04809283971303882</v>
       </c>
       <c r="F37">
-        <v>1.333475701821092</v>
+        <v>1.257998214218522</v>
       </c>
       <c r="G37">
-        <v>1329986.982633153</v>
+        <v>1444778.996104756</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.887897608266408</v>
+        <v>4.826411807678362</v>
       </c>
       <c r="C38">
-        <v>1.208806939998809</v>
+        <v>0.9284648059030028</v>
       </c>
       <c r="D38">
-        <v>2.180509980275893</v>
+        <v>2.642438771821832</v>
       </c>
       <c r="E38">
-        <v>0.05518091354907475</v>
+        <v>0.05246712957221164</v>
       </c>
       <c r="F38">
-        <v>1.156562512031889</v>
+        <v>1.47085927580526</v>
       </c>
       <c r="G38">
-        <v>1343727.716615389</v>
+        <v>1441193.194924109</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.078511166866289</v>
+        <v>2.319547768234405</v>
       </c>
       <c r="C39">
-        <v>0.9380625287431835</v>
+        <v>0.9303112571578848</v>
       </c>
       <c r="D39">
-        <v>2.990474101321701</v>
+        <v>2.256629011077739</v>
       </c>
       <c r="E39">
-        <v>0.05459198076557203</v>
+        <v>0.03996852417511162</v>
       </c>
       <c r="F39">
-        <v>1.032739409404512</v>
+        <v>1.403993313873192</v>
       </c>
       <c r="G39">
-        <v>1298888.32308104</v>
+        <v>988315.6231814038</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.613865887491824</v>
+        <v>4.11822807966659</v>
       </c>
       <c r="C40">
-        <v>1.17614317433244</v>
+        <v>0.9979786846002707</v>
       </c>
       <c r="D40">
-        <v>1.206655654245274</v>
+        <v>1.286936763308273</v>
       </c>
       <c r="E40">
-        <v>0.04947297046561024</v>
+        <v>0.04169856172451258</v>
       </c>
       <c r="F40">
-        <v>1.003675945536973</v>
+        <v>0.9241159725191445</v>
       </c>
       <c r="G40">
-        <v>1466731.819939033</v>
+        <v>1503606.188236786</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.801455275838395</v>
+        <v>3.69961326049931</v>
       </c>
       <c r="C41">
-        <v>1.035380282361672</v>
+        <v>1.077020654969288</v>
       </c>
       <c r="D41">
-        <v>1.422757608149257</v>
+        <v>2.810774897020855</v>
       </c>
       <c r="E41">
-        <v>0.04243892038750539</v>
+        <v>0.0366577030630914</v>
       </c>
       <c r="F41">
-        <v>1.341088270893972</v>
+        <v>0.9082354788700446</v>
       </c>
       <c r="G41">
-        <v>814507.5352530191</v>
+        <v>1891691.573233256</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.724017203926345</v>
+        <v>3.961539587065833</v>
       </c>
       <c r="C42">
-        <v>0.9335183225336506</v>
+        <v>0.9582631178099565</v>
       </c>
       <c r="D42">
-        <v>2.620127229587201</v>
+        <v>2.601678554236125</v>
       </c>
       <c r="E42">
-        <v>0.04192110773617697</v>
+        <v>0.05462027185410843</v>
       </c>
       <c r="F42">
-        <v>1.227738604451844</v>
+        <v>1.042465336850615</v>
       </c>
       <c r="G42">
-        <v>1426368.105454854</v>
+        <v>1464164.324319189</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.707696766985576</v>
+        <v>3.520037037733735</v>
       </c>
       <c r="C43">
-        <v>1.232077286630415</v>
+        <v>1.244147400700131</v>
       </c>
       <c r="D43">
-        <v>2.84485795025759</v>
+        <v>1.705455319583752</v>
       </c>
       <c r="E43">
-        <v>0.04774569952332522</v>
+        <v>0.03822926460976907</v>
       </c>
       <c r="F43">
-        <v>1.383539331027285</v>
+        <v>0.8947309726192609</v>
       </c>
       <c r="G43">
-        <v>1746619.02756955</v>
+        <v>1844111.685396804</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.596379375835134</v>
+        <v>4.591475626306345</v>
       </c>
       <c r="C44">
-        <v>0.9623195699065127</v>
+        <v>1.131507247489342</v>
       </c>
       <c r="D44">
-        <v>2.496358357228991</v>
+        <v>2.81861357925693</v>
       </c>
       <c r="E44">
-        <v>0.05610788046363629</v>
+        <v>0.0421038817653661</v>
       </c>
       <c r="F44">
-        <v>1.02525299108482</v>
+        <v>1.146569504084844</v>
       </c>
       <c r="G44">
-        <v>1601675.952469547</v>
+        <v>2065662.832682055</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.302983874036965</v>
+        <v>4.064491159602643</v>
       </c>
       <c r="C45">
-        <v>1.235681815514055</v>
+        <v>0.9646581940260752</v>
       </c>
       <c r="D45">
-        <v>2.770101749307193</v>
+        <v>1.871916222349884</v>
       </c>
       <c r="E45">
-        <v>0.05234171102548195</v>
+        <v>0.04645223665095124</v>
       </c>
       <c r="F45">
-        <v>1.497529582286512</v>
+        <v>0.9805282485909941</v>
       </c>
       <c r="G45">
-        <v>1771238.477110788</v>
+        <v>1477636.753477211</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.973644953377526</v>
+        <v>1.939911563404836</v>
       </c>
       <c r="C46">
-        <v>0.9415063887355322</v>
+        <v>1.250877883198403</v>
       </c>
       <c r="D46">
-        <v>2.141845402542108</v>
+        <v>2.676847039410082</v>
       </c>
       <c r="E46">
-        <v>0.03042027262617856</v>
+        <v>0.05544779331081682</v>
       </c>
       <c r="F46">
-        <v>0.850190083293537</v>
+        <v>1.341539300980459</v>
       </c>
       <c r="G46">
-        <v>1430236.001178185</v>
+        <v>1106520.167230248</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.136733772152017</v>
+        <v>3.806241368901857</v>
       </c>
       <c r="C47">
-        <v>1.185200853894942</v>
+        <v>1.225089956140926</v>
       </c>
       <c r="D47">
-        <v>2.21776161574099</v>
+        <v>2.225776864885459</v>
       </c>
       <c r="E47">
-        <v>0.03622875892667076</v>
+        <v>0.05590511156512724</v>
       </c>
       <c r="F47">
-        <v>1.277894320351707</v>
+        <v>0.8601415172100997</v>
       </c>
       <c r="G47">
-        <v>1605971.943932881</v>
+        <v>1847071.638237232</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.629577324398585</v>
+        <v>2.221313428291675</v>
       </c>
       <c r="C48">
-        <v>1.105932433439157</v>
+        <v>1.242324937307284</v>
       </c>
       <c r="D48">
-        <v>1.132141604962114</v>
+        <v>1.756603501849059</v>
       </c>
       <c r="E48">
-        <v>0.05591306674472582</v>
+        <v>0.04595423430771658</v>
       </c>
       <c r="F48">
-        <v>1.284751440198975</v>
+        <v>1.311696203681273</v>
       </c>
       <c r="G48">
-        <v>644170.2363511464</v>
+        <v>1131202.917931842</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.416260085038349</v>
+        <v>1.681649566558158</v>
       </c>
       <c r="C49">
-        <v>1.14734339831156</v>
+        <v>0.9859652088453041</v>
       </c>
       <c r="D49">
-        <v>1.600130163573172</v>
+        <v>1.850638991842447</v>
       </c>
       <c r="E49">
-        <v>0.03346781723546847</v>
+        <v>0.04688222850283021</v>
       </c>
       <c r="F49">
-        <v>1.089689865770035</v>
+        <v>1.136724182142881</v>
       </c>
       <c r="G49">
-        <v>1333272.991162894</v>
+        <v>853926.5809927065</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.804696420053709</v>
+        <v>4.473531829630863</v>
       </c>
       <c r="C50">
-        <v>1.153285825833594</v>
+        <v>1.018206687985696</v>
       </c>
       <c r="D50">
-        <v>2.651736981741815</v>
+        <v>2.481896698575494</v>
       </c>
       <c r="E50">
-        <v>0.03509755696215357</v>
+        <v>0.05517954041098082</v>
       </c>
       <c r="F50">
-        <v>1.3746118362219</v>
+        <v>1.274494471882972</v>
       </c>
       <c r="G50">
-        <v>1539041.84620554</v>
+        <v>1526277.44207785</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.317866096013234</v>
+        <v>4.64074263720266</v>
       </c>
       <c r="C51">
-        <v>1.100473111677383</v>
+        <v>1.165247163927642</v>
       </c>
       <c r="D51">
-        <v>1.101039874395458</v>
+        <v>1.60468240125706</v>
       </c>
       <c r="E51">
-        <v>0.04532233777613033</v>
+        <v>0.03620272744061258</v>
       </c>
       <c r="F51">
-        <v>1.164526086267333</v>
+        <v>0.8240920363293985</v>
       </c>
       <c r="G51">
-        <v>1236191.027435747</v>
+        <v>2098315.035170824</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.444225610377052</v>
+        <v>2.843147561095458</v>
       </c>
       <c r="C52">
-        <v>1.008726094066682</v>
+        <v>1.059474522553742</v>
       </c>
       <c r="D52">
-        <v>2.953329056024406</v>
+        <v>2.098187433206435</v>
       </c>
       <c r="E52">
-        <v>0.03949185813702631</v>
+        <v>0.05347409471644847</v>
       </c>
       <c r="F52">
-        <v>1.130478859061194</v>
+        <v>1.081520913593375</v>
       </c>
       <c r="G52">
-        <v>1608023.992018259</v>
+        <v>1211076.875478712</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.25878096444043</v>
+        <v>2.91452210828172</v>
       </c>
       <c r="C53">
-        <v>1.092208072366957</v>
+        <v>1.211613234325544</v>
       </c>
       <c r="D53">
-        <v>1.512236050197991</v>
+        <v>2.959775780012396</v>
       </c>
       <c r="E53">
-        <v>0.0491373794045747</v>
+        <v>0.0489380683576096</v>
       </c>
       <c r="F53">
-        <v>0.8655472221138168</v>
+        <v>0.8049932072366487</v>
       </c>
       <c r="G53">
-        <v>1141737.033040784</v>
+        <v>1836582.894939229</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.627500076533061</v>
+        <v>3.61651543932869</v>
       </c>
       <c r="C54">
-        <v>0.9875778164513941</v>
+        <v>0.9926996246976698</v>
       </c>
       <c r="D54">
-        <v>1.320650801487592</v>
+        <v>1.034877860112524</v>
       </c>
       <c r="E54">
-        <v>0.03899995730779712</v>
+        <v>0.0325401831544712</v>
       </c>
       <c r="F54">
-        <v>1.324137553349881</v>
+        <v>1.155218734487</v>
       </c>
       <c r="G54">
-        <v>1236205.129827661</v>
+        <v>1331150.066318961</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.768557273475629</v>
+        <v>3.712990397224274</v>
       </c>
       <c r="C55">
-        <v>1.05402145635728</v>
+        <v>1.154026923341508</v>
       </c>
       <c r="D55">
-        <v>1.343954310083684</v>
+        <v>1.927471757210301</v>
       </c>
       <c r="E55">
-        <v>0.04152561021295485</v>
+        <v>0.0380862873825371</v>
       </c>
       <c r="F55">
-        <v>0.8402647692357752</v>
+        <v>1.007586306970324</v>
       </c>
       <c r="G55">
-        <v>1818976.825768286</v>
+        <v>1765347.604542207</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.365124999697556</v>
+        <v>3.765204984994965</v>
       </c>
       <c r="C56">
-        <v>1.253866947448131</v>
+        <v>1.086954749180219</v>
       </c>
       <c r="D56">
-        <v>2.704503733102966</v>
+        <v>2.857690283593946</v>
       </c>
       <c r="E56">
-        <v>0.05010576837327021</v>
+        <v>0.03727834207234169</v>
       </c>
       <c r="F56">
-        <v>0.9386837379218811</v>
+        <v>1.180589835323222</v>
       </c>
       <c r="G56">
-        <v>1564215.161135929</v>
+        <v>1809868.68023651</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.591124134418215</v>
+        <v>3.310129841868405</v>
       </c>
       <c r="C57">
-        <v>1.02416918291704</v>
+        <v>1.254934991284409</v>
       </c>
       <c r="D57">
-        <v>2.427614388979226</v>
+        <v>1.531185501723193</v>
       </c>
       <c r="E57">
-        <v>0.05303722959045008</v>
+        <v>0.04546752263510538</v>
       </c>
       <c r="F57">
-        <v>1.203283419039746</v>
+        <v>1.492745239660695</v>
       </c>
       <c r="G57">
-        <v>1111847.536976575</v>
+        <v>1326236.173112254</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.008224101343236</v>
+        <v>1.910340329884334</v>
       </c>
       <c r="C58">
-        <v>0.9777082057261587</v>
+        <v>1.03633323465488</v>
       </c>
       <c r="D58">
-        <v>1.550269610324423</v>
+        <v>2.405042769543994</v>
       </c>
       <c r="E58">
-        <v>0.05565284808059051</v>
+        <v>0.03926657626329814</v>
       </c>
       <c r="F58">
-        <v>1.111000213365892</v>
+        <v>1.089890694250961</v>
       </c>
       <c r="G58">
-        <v>1258793.796769084</v>
+        <v>1163928.297268059</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.852605216289583</v>
+        <v>4.037173603269204</v>
       </c>
       <c r="C59">
-        <v>1.217791124723102</v>
+        <v>1.096722520540952</v>
       </c>
       <c r="D59">
-        <v>1.834470757900682</v>
+        <v>1.25077270072494</v>
       </c>
       <c r="E59">
-        <v>0.05188203861445252</v>
+        <v>0.03960648939529546</v>
       </c>
       <c r="F59">
-        <v>0.9552986924036135</v>
+        <v>1.486826431566735</v>
       </c>
       <c r="G59">
-        <v>1142334.307604991</v>
+        <v>1389740.096854426</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.446975915644943</v>
+        <v>1.848979827952059</v>
       </c>
       <c r="C60">
-        <v>0.9288935958122176</v>
+        <v>1.124156167403468</v>
       </c>
       <c r="D60">
-        <v>2.515783533774279</v>
+        <v>2.471221330173685</v>
       </c>
       <c r="E60">
-        <v>0.04411007439727579</v>
+        <v>0.05775369675087796</v>
       </c>
       <c r="F60">
-        <v>0.9723341807463572</v>
+        <v>1.477363791558785</v>
       </c>
       <c r="G60">
-        <v>1659608.08530958</v>
+        <v>836476.3841393476</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.612031381174686</v>
+        <v>2.266534123701117</v>
       </c>
       <c r="C61">
-        <v>1.068158193449854</v>
+        <v>0.9448965711080799</v>
       </c>
       <c r="D61">
-        <v>1.045329772689671</v>
+        <v>2.015128475243653</v>
       </c>
       <c r="E61">
-        <v>0.03693034083425822</v>
+        <v>0.04515053100478236</v>
       </c>
       <c r="F61">
-        <v>0.898953613084215</v>
+        <v>1.241012861819881</v>
       </c>
       <c r="G61">
-        <v>1756794.209944372</v>
+        <v>951012.8845855108</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.005698517541703</v>
+        <v>2.629809119858727</v>
       </c>
       <c r="C62">
-        <v>1.159476638328566</v>
+        <v>1.004299765684235</v>
       </c>
       <c r="D62">
-        <v>2.554889040100328</v>
+        <v>2.926295368045818</v>
       </c>
       <c r="E62">
-        <v>0.0355734740356889</v>
+        <v>0.0318488220456218</v>
       </c>
       <c r="F62">
-        <v>1.483725953929985</v>
+        <v>1.423365861116003</v>
       </c>
       <c r="G62">
-        <v>1824584.527368408</v>
+        <v>1379432.806564247</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.239420655828873</v>
+        <v>3.435513664747413</v>
       </c>
       <c r="C63">
-        <v>1.057017637604167</v>
+        <v>0.9523345047422574</v>
       </c>
       <c r="D63">
-        <v>1.804998709833471</v>
+        <v>2.308958164820884</v>
       </c>
       <c r="E63">
-        <v>0.03456328479361843</v>
+        <v>0.04393418108385613</v>
       </c>
       <c r="F63">
-        <v>1.307217272238666</v>
+        <v>0.9193216241175304</v>
       </c>
       <c r="G63">
-        <v>1656953.173737108</v>
+        <v>1439345.336842819</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.509040128098884</v>
+        <v>4.191466206874372</v>
       </c>
       <c r="C64">
-        <v>1.199775675657242</v>
+        <v>0.9470556431321153</v>
       </c>
       <c r="D64">
-        <v>2.536025103581115</v>
+        <v>1.996312626629256</v>
       </c>
       <c r="E64">
-        <v>0.03880542024081952</v>
+        <v>0.02965243268754461</v>
       </c>
       <c r="F64">
-        <v>1.102061825842155</v>
+        <v>1.218719776409159</v>
       </c>
       <c r="G64">
-        <v>2169411.284905055</v>
+        <v>1601742.431247363</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.69765988616151</v>
+        <v>4.148213097102606</v>
       </c>
       <c r="C65">
-        <v>0.9499675918783053</v>
+        <v>1.032897501139356</v>
       </c>
       <c r="D65">
-        <v>2.105091108119647</v>
+        <v>1.456985912533904</v>
       </c>
       <c r="E65">
-        <v>0.05191755586664934</v>
+        <v>0.0314016201567123</v>
       </c>
       <c r="F65">
-        <v>1.454399485192132</v>
+        <v>0.9723028158535507</v>
       </c>
       <c r="G65">
-        <v>1360790.956806436</v>
+        <v>1689161.585082634</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.085870493984378</v>
+        <v>3.863139917550659</v>
       </c>
       <c r="C66">
-        <v>1.136262138877934</v>
+        <v>1.025364200870771</v>
       </c>
       <c r="D66">
-        <v>1.567348130977906</v>
+        <v>2.90208963660457</v>
       </c>
       <c r="E66">
-        <v>0.0329403040989821</v>
+        <v>0.03029393547434333</v>
       </c>
       <c r="F66">
-        <v>1.298601729261511</v>
+        <v>1.109270623258989</v>
       </c>
       <c r="G66">
-        <v>1712821.636964952</v>
+        <v>1859814.96159921</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.731073960130521</v>
+        <v>2.506345932598647</v>
       </c>
       <c r="C67">
-        <v>1.000143026279946</v>
+        <v>1.160185060290516</v>
       </c>
       <c r="D67">
-        <v>2.754313203935834</v>
+        <v>1.225487658142861</v>
       </c>
       <c r="E67">
-        <v>0.04670826206398791</v>
+        <v>0.05043355084698956</v>
       </c>
       <c r="F67">
-        <v>0.8635202394869892</v>
+        <v>1.190358693066951</v>
       </c>
       <c r="G67">
-        <v>1169857.767936619</v>
+        <v>1026886.250159258</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.494899046534001</v>
+        <v>4.711338213202485</v>
       </c>
       <c r="C68">
-        <v>1.018094313966462</v>
+        <v>1.126371736287128</v>
       </c>
       <c r="D68">
-        <v>2.922003902905347</v>
+        <v>1.414738609647822</v>
       </c>
       <c r="E68">
-        <v>0.05690239882282973</v>
+        <v>0.03462895629725564</v>
       </c>
       <c r="F68">
-        <v>1.233042373000438</v>
+        <v>1.165263225102804</v>
       </c>
       <c r="G68">
-        <v>1363004.024846302</v>
+        <v>1875314.493558561</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.526667495639621</v>
+        <v>3.064243383175173</v>
       </c>
       <c r="C69">
-        <v>1.085994804367688</v>
+        <v>1.13981463094101</v>
       </c>
       <c r="D69">
-        <v>1.236664257022126</v>
+        <v>1.343775456549958</v>
       </c>
       <c r="E69">
-        <v>0.04105478287210865</v>
+        <v>0.04311021855049829</v>
       </c>
       <c r="F69">
-        <v>1.265943790907557</v>
+        <v>1.12717549147712</v>
       </c>
       <c r="G69">
-        <v>1583552.835538329</v>
+        <v>1309059.211905821</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.887213087351736</v>
+        <v>4.805168563539358</v>
       </c>
       <c r="C70">
-        <v>1.180889268243571</v>
+        <v>1.20229683337387</v>
       </c>
       <c r="D70">
-        <v>1.777425386571616</v>
+        <v>1.133816329990108</v>
       </c>
       <c r="E70">
-        <v>0.03751596378605639</v>
+        <v>0.04380193145578518</v>
       </c>
       <c r="F70">
-        <v>1.04708635837127</v>
+        <v>0.9380534139087067</v>
       </c>
       <c r="G70">
-        <v>1812960.910531098</v>
+        <v>1954608.363003182</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.169546149171993</v>
+        <v>4.682505606594646</v>
       </c>
       <c r="C71">
-        <v>1.077451312263692</v>
+        <v>1.216649873369801</v>
       </c>
       <c r="D71">
-        <v>1.499798715816109</v>
+        <v>2.126909309668891</v>
       </c>
       <c r="E71">
-        <v>0.0572579031672707</v>
+        <v>0.03752884608928021</v>
       </c>
       <c r="F71">
-        <v>1.288490325295651</v>
+        <v>1.021205284900247</v>
       </c>
       <c r="G71">
-        <v>1296998.050165429</v>
+        <v>2215431.588359286</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.529744764471642</v>
+        <v>4.334836694547755</v>
       </c>
       <c r="C72">
-        <v>1.165998075093368</v>
+        <v>0.9732877025883467</v>
       </c>
       <c r="D72">
-        <v>2.584997555001292</v>
+        <v>2.614469696009274</v>
       </c>
       <c r="E72">
-        <v>0.04306168017145127</v>
+        <v>0.04272717050407387</v>
       </c>
       <c r="F72">
-        <v>1.000741671972728</v>
+        <v>1.327683591170793</v>
       </c>
       <c r="G72">
-        <v>1523520.369367934</v>
+        <v>1585044.637777487</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.439005721422773</v>
+        <v>2.402868274862487</v>
       </c>
       <c r="C73">
-        <v>1.007409187484711</v>
+        <v>1.183304371338304</v>
       </c>
       <c r="D73">
-        <v>1.897582142875677</v>
+        <v>2.577712672502533</v>
       </c>
       <c r="E73">
-        <v>0.05362798179749515</v>
+        <v>0.05609406202945762</v>
       </c>
       <c r="F73">
-        <v>1.069778988023644</v>
+        <v>0.9416726639993102</v>
       </c>
       <c r="G73">
-        <v>1020964.446108406</v>
+        <v>1389701.179616982</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.850511173341362</v>
+        <v>3.23628182574443</v>
       </c>
       <c r="C74">
-        <v>1.196253960779988</v>
+        <v>0.9887323136969099</v>
       </c>
       <c r="D74">
-        <v>1.298295944049098</v>
+        <v>2.048281782985923</v>
       </c>
       <c r="E74">
-        <v>0.04024387434887627</v>
+        <v>0.03355931078879355</v>
       </c>
       <c r="F74">
-        <v>1.45060672154294</v>
+        <v>1.06135987366702</v>
       </c>
       <c r="G74">
-        <v>1777868.702900346</v>
+        <v>1444770.643560106</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.898919610356281</v>
+        <v>3.170793629309785</v>
       </c>
       <c r="C75">
-        <v>1.095200857809743</v>
+        <v>1.016281244769714</v>
       </c>
       <c r="D75">
-        <v>2.369835472280365</v>
+        <v>1.90051053312593</v>
       </c>
       <c r="E75">
-        <v>0.02938829579960803</v>
+        <v>0.05704273448688778</v>
       </c>
       <c r="F75">
-        <v>1.136623771838248</v>
+        <v>1.290043475517564</v>
       </c>
       <c r="G75">
-        <v>1326730.205555675</v>
+        <v>1056446.534507859</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.67489865602639</v>
+        <v>2.138353294560208</v>
       </c>
       <c r="C76">
-        <v>0.955450439189006</v>
+        <v>1.110486171109786</v>
       </c>
       <c r="D76">
-        <v>2.185975302181755</v>
+        <v>2.198207962537547</v>
       </c>
       <c r="E76">
-        <v>0.04230442522507642</v>
+        <v>0.04077323285775549</v>
       </c>
       <c r="F76">
-        <v>0.9198850157632193</v>
+        <v>0.8792197509601786</v>
       </c>
       <c r="G76">
-        <v>1252449.439963641</v>
+        <v>1346336.17642062</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.352505733107156</v>
+        <v>1.987097462047076</v>
       </c>
       <c r="C77">
-        <v>1.110836019150468</v>
+        <v>0.9642694806150388</v>
       </c>
       <c r="D77">
-        <v>1.927748744060452</v>
+        <v>1.639294518618919</v>
       </c>
       <c r="E77">
-        <v>0.03062831420069136</v>
+        <v>0.03006974072327166</v>
       </c>
       <c r="F77">
-        <v>1.442639450031381</v>
+        <v>1.231055122047855</v>
       </c>
       <c r="G77">
-        <v>1812463.469143108</v>
+        <v>1021227.248010808</v>
       </c>
     </row>
   </sheetData>
